--- a/documents/report/Gráfico-EP02.xlsx
+++ b/documents/report/Gráfico-EP02.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>01 Thread</t>
   </si>
@@ -51,19 +51,22 @@
     <t>25748 Vértices</t>
   </si>
   <si>
-    <t>25749 Vértices</t>
+    <t>70000003 Vértices</t>
   </si>
   <si>
-    <t>25750 Vértices</t>
+    <t>11954 Vértices</t>
   </si>
   <si>
-    <t>25751 Vértices</t>
+    <t>310398 Vértices</t>
   </si>
   <si>
-    <t>25752 Vértices</t>
+    <t>10000003 Vértices</t>
   </si>
   <si>
-    <t>70000003 Vértices</t>
+    <t>30000003 Vértices</t>
+  </si>
+  <si>
+    <t>50000003 Vértices</t>
   </si>
 </sst>
 </file>
@@ -256,22 +259,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150.0</c:v>
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -325,22 +328,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300.0</c:v>
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>243.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -355,7 +358,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2251 Vértices</c:v>
+                  <c:v>25748 Vértices</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -394,22 +397,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1200.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>634.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>307.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>411.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>387.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,7 +427,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25748 Vértices</c:v>
+                  <c:v>11954 Vértices</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -463,22 +466,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2400.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1200.0</c:v>
+                  <c:v>347.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>307.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>249.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>304.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,7 +496,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25749 Vértices</c:v>
+                  <c:v>310398 Vértices</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -532,22 +535,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>16000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4800.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3200.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                  <c:v>6715.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3577.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2755.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2272.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2624.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -562,7 +565,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25750 Vértices</c:v>
+                  <c:v>10000003 Vértices</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -601,22 +604,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9600.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6400.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4800.0</c:v>
+                  <c:v>209889.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119923.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69392.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74143.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70859.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69914.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,7 +634,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25751 Vértices</c:v>
+                  <c:v>30000003 Vértices</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -670,22 +673,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>64000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19200.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12800.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9600.0</c:v>
+                  <c:v>665619.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340865.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>207288.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>148286.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200518.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>206987.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -700,7 +703,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25752 Vértices</c:v>
+                  <c:v>50000003 Vértices</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -739,22 +742,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>128000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>38400.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25600.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19200.0</c:v>
+                  <c:v>1.078628E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>579789.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>332668.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>404018.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>338051.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>349063.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,22 +811,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>256000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>76800.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51200.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38400.0</c:v>
+                  <c:v>1.619591E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>827808.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>473638.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480052.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>475789.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>471808.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,12 +842,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2146223976"/>
-        <c:axId val="2136819224"/>
+        <c:axId val="2070547144"/>
+        <c:axId val="2070550056"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2146223976"/>
+        <c:axId val="2070547144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +856,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136819224"/>
+        <c:crossAx val="2070550056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -861,7 +864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136819224"/>
+        <c:axId val="2070550056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +894,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146223976"/>
+        <c:crossAx val="2070547144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -924,10 +927,10 @@
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1273,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1293,25 +1296,25 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -1319,39 +1322,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1000</v>
+        <v>78</v>
       </c>
       <c r="D7">
-        <f>C7*2</f>
-        <v>2000</v>
+        <v>139</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:G7" si="0">D7*2</f>
-        <v>4000</v>
+        <v>634</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>347</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>6715</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:K7" si="1">G7*2</f>
-        <v>32000</v>
+        <v>209889</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
-        <v>64000</v>
+        <v>665619</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
-        <v>128000</v>
+        <v>1078628</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
-        <v>256000</v>
+        <v>1619591</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -1359,39 +1354,31 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>500</v>
+        <v>115</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:F8" si="2">C8*2</f>
-        <v>1000</v>
+        <v>146</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>440</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>307</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:K8" si="3">F8*2</f>
-        <v>8000</v>
+        <v>3577</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
-        <v>16000</v>
+        <v>119923</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
-        <v>32000</v>
+        <v>340865</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
-        <v>64000</v>
+        <v>579789</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
-        <v>128000</v>
+        <v>827808</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -1399,39 +1386,31 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>300</v>
+        <v>105</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:F9" si="4">C9*2</f>
-        <v>600</v>
+        <v>165</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>307</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="G9">
         <v>2400</v>
       </c>
-      <c r="G9">
-        <f t="shared" ref="G9:K9" si="5">F9*2</f>
-        <v>4800</v>
-      </c>
       <c r="H9">
-        <f t="shared" si="5"/>
-        <v>9600</v>
+        <v>69392</v>
       </c>
       <c r="I9">
-        <f t="shared" si="5"/>
-        <v>19200</v>
+        <v>207288</v>
       </c>
       <c r="J9">
-        <f t="shared" si="5"/>
-        <v>38400</v>
+        <v>332668</v>
       </c>
       <c r="K9">
-        <f t="shared" si="5"/>
-        <v>76800</v>
+        <v>473638</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -1439,39 +1418,32 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:F10" si="6">C10*2</f>
-        <v>500</v>
+        <v>186</v>
       </c>
       <c r="E10">
-        <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>411</v>
       </c>
       <c r="F10">
-        <f t="shared" si="6"/>
-        <v>2000</v>
+        <v>256</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:K10" si="7">F10*2</f>
-        <v>4000</v>
+        <v>2755</v>
       </c>
       <c r="H10">
-        <f t="shared" si="7"/>
-        <v>8000</v>
+        <v>74143</v>
       </c>
       <c r="I10">
-        <f t="shared" si="7"/>
-        <v>16000</v>
+        <f t="shared" ref="G10:K10" si="0">H10*2</f>
+        <v>148286</v>
       </c>
       <c r="J10">
-        <f t="shared" si="7"/>
-        <v>32000</v>
+        <v>404018</v>
       </c>
       <c r="K10">
-        <f t="shared" si="7"/>
-        <v>64000</v>
+        <v>480052</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -1479,39 +1451,31 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:F11" si="8">C11*2</f>
-        <v>400</v>
+        <v>217</v>
       </c>
       <c r="E11">
-        <f t="shared" si="8"/>
-        <v>800</v>
+        <v>387</v>
       </c>
       <c r="F11">
-        <f t="shared" si="8"/>
-        <v>1600</v>
+        <v>249</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:K11" si="9">F11*2</f>
-        <v>3200</v>
+        <v>2272</v>
       </c>
       <c r="H11">
-        <f t="shared" si="9"/>
-        <v>6400</v>
+        <v>70859</v>
       </c>
       <c r="I11">
-        <f t="shared" si="9"/>
-        <v>12800</v>
+        <v>200518</v>
       </c>
       <c r="J11">
-        <f t="shared" si="9"/>
-        <v>25600</v>
+        <v>338051</v>
       </c>
       <c r="K11">
-        <f t="shared" si="9"/>
-        <v>51200</v>
+        <v>475789</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -1519,44 +1483,35 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:F12" si="10">C12*2</f>
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="E12">
-        <f t="shared" si="10"/>
-        <v>600</v>
+        <v>485</v>
       </c>
       <c r="F12">
-        <f t="shared" si="10"/>
-        <v>1200</v>
+        <v>304</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:K12" si="11">F12*2</f>
-        <v>2400</v>
+        <v>2624</v>
       </c>
       <c r="H12">
-        <f t="shared" si="11"/>
-        <v>4800</v>
+        <v>69914</v>
       </c>
       <c r="I12">
-        <f t="shared" si="11"/>
-        <v>9600</v>
+        <v>206987</v>
       </c>
       <c r="J12">
-        <f t="shared" si="11"/>
-        <v>19200</v>
+        <v>349063</v>
       </c>
       <c r="K12">
-        <f t="shared" si="11"/>
-        <v>38400</v>
+        <v>471808</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/documents/report/Gráfico-EP02.xlsx
+++ b/documents/report/Gráfico-EP02.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t>01 Thread</t>
   </si>
@@ -115,8 +115,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -134,17 +142,25 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -216,7 +232,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$6</c:f>
+              <c:f>Sheet1!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -228,7 +244,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$7:$B$12</c:f>
+              <c:f>Sheet1!$B$10:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -254,7 +270,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$12</c:f>
+              <c:f>Sheet1!$C$10:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -285,7 +301,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$6</c:f>
+              <c:f>Sheet1!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -297,7 +313,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$7:$B$12</c:f>
+              <c:f>Sheet1!$B$10:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -323,7 +339,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$D$12</c:f>
+              <c:f>Sheet1!$D$10:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -354,7 +370,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$6</c:f>
+              <c:f>Sheet1!$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -366,7 +382,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$7:$B$12</c:f>
+              <c:f>Sheet1!$B$10:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -392,7 +408,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$7:$E$12</c:f>
+              <c:f>Sheet1!$E$10:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -423,7 +439,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$6</c:f>
+              <c:f>Sheet1!$F$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -435,7 +451,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$7:$B$12</c:f>
+              <c:f>Sheet1!$B$10:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -461,7 +477,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$7:$F$12</c:f>
+              <c:f>Sheet1!$F$10:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -492,7 +508,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$6</c:f>
+              <c:f>Sheet1!$G$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -504,7 +520,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$7:$B$12</c:f>
+              <c:f>Sheet1!$B$10:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -530,7 +546,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$7:$G$12</c:f>
+              <c:f>Sheet1!$G$10:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -561,7 +577,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$6</c:f>
+              <c:f>Sheet1!$H$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -573,7 +589,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$7:$B$12</c:f>
+              <c:f>Sheet1!$B$10:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -599,7 +615,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$7:$H$12</c:f>
+              <c:f>Sheet1!$H$10:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -630,7 +646,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$6</c:f>
+              <c:f>Sheet1!$I$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -642,7 +658,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$7:$B$12</c:f>
+              <c:f>Sheet1!$B$10:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -668,7 +684,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$7:$I$12</c:f>
+              <c:f>Sheet1!$I$10:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -699,7 +715,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$6</c:f>
+              <c:f>Sheet1!$J$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -711,7 +727,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$7:$B$12</c:f>
+              <c:f>Sheet1!$B$10:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -737,7 +753,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$7:$J$12</c:f>
+              <c:f>Sheet1!$J$10:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -768,7 +784,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$6</c:f>
+              <c:f>Sheet1!$K$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -780,7 +796,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$7:$B$12</c:f>
+              <c:f>Sheet1!$B$10:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -806,7 +822,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$7:$K$12</c:f>
+              <c:f>Sheet1!$K$10:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -842,12 +858,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2070547144"/>
-        <c:axId val="2070550056"/>
+        <c:axId val="2083805832"/>
+        <c:axId val="2083808744"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2070547144"/>
+        <c:axId val="2083805832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,7 +872,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070550056"/>
+        <c:crossAx val="2083808744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -864,7 +880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2070550056"/>
+        <c:axId val="2083808744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +910,1545 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070547144"/>
+        <c:crossAx val="2083805832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avaliaç</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ão de </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$10:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$10:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.678260869565217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.742857142857143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.443181818181818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.445714285714286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.475609756097561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2251 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$10:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$10:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.952054794520548</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.842424242424242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.747311827956989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.640552995391705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57201646090535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25748 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$10:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$10:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.440909090909091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.06514657980456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.542579075425791</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.638242894056848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.307216494845361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11954 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$10:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$10:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.130293159609121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.457983193277311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.35546875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.393574297188755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.141447368421053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>310398 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$10:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$10:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.877271456527817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.797916666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.437386569872958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.955545774647887</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.55907012195122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000003 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$10:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$10:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.750198043744736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.024685842748444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.830867377904859</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.962065510379768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.002102583173613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30000003 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$10:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$10:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.952734953720681</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.211083130716684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.48875146676018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.31949750147119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.215752680120008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50000003 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$10:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$10:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.860380241777612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.242355742061154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.669752337767129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.190725659737732</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.090066836072571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70000003 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$10:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$10:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.956481454636824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.419470143865146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.37378242357078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.404011021692389</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.43273323046663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="2135023288"/>
+        <c:axId val="2134926072"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="2135023288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2134926072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2134926072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2135023288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avaliaç</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ão de Eficiência</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$X$10:$X$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$10:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.339130434782609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.185714285714286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0738636363636364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0557142857142857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0475609756097561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2251 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$X$10:$X$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$10:$Z$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.476027397260274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.210606060606061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.124551971326165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0800691244239631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.057201646090535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25748 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$X$10:$X$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$10:$AA$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.720454545454545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51628664495114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.257096512570965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.204780361757106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.130721649484536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11954 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$X$10:$X$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$10:$AB$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56514657980456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.364495798319328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.225911458333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.174196787148594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.114144736842105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AC$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>310398 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$X$10:$X$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$10:$AC$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.938635728263908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.699479166666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.406231094978826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.369443221830986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.255907012195122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AD$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000003 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$X$10:$X$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AD$10:$AD$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.875099021872368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.756171460687111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47181122965081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.370258188797471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.300210258317361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30000003 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$X$10:$X$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$10:$AE$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.976367476860341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.802770782679171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74812524446003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.414937187683899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.321575268012001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AF$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50000003 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$X$10:$X$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$10:$AF$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.930190120888806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.810588935515288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.444958722961188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.398840707467216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.309006683607257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AG$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70000003 Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$X$10:$X$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>01 Thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04 Threads</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06 Threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08 Threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AG$10:$AG$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.978240727318412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.854867535966286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56229707059513</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.425501377711549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.343273323046663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="2137153464"/>
+        <c:axId val="2103201944"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="2137153464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2103201944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2103201944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Efici</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>ência</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137153464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -923,13 +2477,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -944,6 +2498,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1274,244 +2888,789 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:K12"/>
+  <dimension ref="B3:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="P10" workbookViewId="0">
+      <selection activeCell="AG28" sqref="AG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="11" width="17.1640625" customWidth="1"/>
+    <col min="3" max="10" width="17.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="13" max="21" width="17" customWidth="1"/>
+    <col min="22" max="22" width="16.5" customWidth="1"/>
+    <col min="24" max="33" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:11">
-      <c r="B6" t="s">
+    <row r="3" spans="2:33">
+      <c r="X3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33">
+      <c r="X4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33">
+      <c r="X5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33">
+      <c r="X6">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="7" spans="2:33">
+      <c r="X7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33">
+      <c r="X8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="B7" t="s">
+    <row r="10" spans="2:33">
+      <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>78</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <v>139</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>634</v>
       </c>
-      <c r="F7">
+      <c r="F10">
         <v>347</v>
       </c>
-      <c r="G7">
+      <c r="G10">
         <v>6715</v>
       </c>
-      <c r="H7">
+      <c r="H10">
         <v>209889</v>
       </c>
-      <c r="I7">
+      <c r="I10">
         <v>665619</v>
       </c>
-      <c r="J7">
+      <c r="J10">
         <v>1078628</v>
       </c>
-      <c r="K7">
+      <c r="K10">
         <v>1619591</v>
       </c>
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="X10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:11">
-      <c r="B8" t="s">
+    <row r="11" spans="2:33">
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C11">
         <v>115</v>
       </c>
-      <c r="D8">
+      <c r="D11">
         <v>146</v>
       </c>
-      <c r="E8">
+      <c r="E11">
         <v>440</v>
       </c>
-      <c r="F8">
+      <c r="F11">
         <v>307</v>
       </c>
-      <c r="G8">
+      <c r="G11">
         <v>3577</v>
       </c>
-      <c r="H8">
+      <c r="H11">
         <v>119923</v>
       </c>
-      <c r="I8">
+      <c r="I11">
         <v>340865</v>
       </c>
-      <c r="J8">
+      <c r="J11">
         <v>579789</v>
       </c>
-      <c r="K8">
+      <c r="K11">
         <v>827808</v>
       </c>
+      <c r="M11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f>C10/C11</f>
+        <v>0.67826086956521736</v>
+      </c>
+      <c r="O11">
+        <f>D10/D11</f>
+        <v>0.95205479452054798</v>
+      </c>
+      <c r="P11">
+        <f>E10/E11</f>
+        <v>1.4409090909090909</v>
+      </c>
+      <c r="Q11">
+        <f>F10/F11</f>
+        <v>1.1302931596091206</v>
+      </c>
+      <c r="R11">
+        <f>G10/G11</f>
+        <v>1.8772714565278166</v>
+      </c>
+      <c r="S11">
+        <f>H10/H11</f>
+        <v>1.7501980437447362</v>
+      </c>
+      <c r="T11">
+        <f>I10/I11</f>
+        <v>1.9527349537206813</v>
+      </c>
+      <c r="U11">
+        <f>J10/J11</f>
+        <v>1.8603802417776123</v>
+      </c>
+      <c r="V11">
+        <f>K10/K11</f>
+        <v>1.9564814546368241</v>
+      </c>
+      <c r="X11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <f>N11/X4</f>
+        <v>0.33913043478260868</v>
+      </c>
+      <c r="Z11">
+        <f>O11/X4</f>
+        <v>0.47602739726027399</v>
+      </c>
+      <c r="AA11">
+        <f>P11/X4</f>
+        <v>0.72045454545454546</v>
+      </c>
+      <c r="AB11">
+        <f>Q11/X4</f>
+        <v>0.56514657980456029</v>
+      </c>
+      <c r="AC11">
+        <f>R11/X4</f>
+        <v>0.93863572826390829</v>
+      </c>
+      <c r="AD11">
+        <f>S11/X4</f>
+        <v>0.8750990218723681</v>
+      </c>
+      <c r="AE11">
+        <f>T11/X4</f>
+        <v>0.97636747686034064</v>
+      </c>
+      <c r="AF11">
+        <f>U11/X4</f>
+        <v>0.93019012088880615</v>
+      </c>
+      <c r="AG11">
+        <f>V11/X4</f>
+        <v>0.97824072731841205</v>
+      </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" t="s">
+    <row r="12" spans="2:33">
+      <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="C12">
         <v>105</v>
       </c>
-      <c r="D9">
+      <c r="D12">
         <v>165</v>
       </c>
-      <c r="E9">
+      <c r="E12">
         <v>307</v>
       </c>
-      <c r="F9">
+      <c r="F12">
         <v>238</v>
       </c>
-      <c r="G9">
+      <c r="G12">
         <v>2400</v>
       </c>
-      <c r="H9">
+      <c r="H12">
         <v>69392</v>
       </c>
-      <c r="I9">
+      <c r="I12">
         <v>207288</v>
       </c>
-      <c r="J9">
+      <c r="J12">
         <v>332668</v>
       </c>
-      <c r="K9">
+      <c r="K12">
         <v>473638</v>
       </c>
+      <c r="M12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <f>C10/C12</f>
+        <v>0.74285714285714288</v>
+      </c>
+      <c r="O12">
+        <f>D10/D12</f>
+        <v>0.84242424242424241</v>
+      </c>
+      <c r="P12">
+        <f>E10/E12</f>
+        <v>2.0651465798045603</v>
+      </c>
+      <c r="Q12">
+        <f>F10/F12</f>
+        <v>1.4579831932773109</v>
+      </c>
+      <c r="R12">
+        <f>G10/G12</f>
+        <v>2.7979166666666666</v>
+      </c>
+      <c r="S12">
+        <f>H10/H12</f>
+        <v>3.0246858427484438</v>
+      </c>
+      <c r="T12">
+        <f>I10/I12</f>
+        <v>3.2110831307166841</v>
+      </c>
+      <c r="U12">
+        <f>J10/J12</f>
+        <v>3.2423557420611542</v>
+      </c>
+      <c r="V12">
+        <f>K10/K12</f>
+        <v>3.419470143865146</v>
+      </c>
+      <c r="X12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" ref="Y12:Y15" si="0">N12/X5</f>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" ref="Z12:Z15" si="1">O12/X5</f>
+        <v>0.2106060606060606</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" ref="AA12:AA15" si="2">P12/X5</f>
+        <v>0.51628664495114007</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" ref="AB12:AB15" si="3">Q12/X5</f>
+        <v>0.36449579831932771</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" ref="AC12:AC15" si="4">R12/X5</f>
+        <v>0.69947916666666665</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" ref="AD12:AD15" si="5">S12/X5</f>
+        <v>0.75617146068711094</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" ref="AE12:AE15" si="6">T12/X5</f>
+        <v>0.80277078267917101</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" ref="AF12:AF15" si="7">U12/X5</f>
+        <v>0.81058893551528854</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" ref="AG12:AG15" si="8">V12/X5</f>
+        <v>0.85486753596628651</v>
+      </c>
     </row>
-    <row r="10" spans="2:11">
-      <c r="B10" t="s">
+    <row r="13" spans="2:33">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C13">
         <v>176</v>
       </c>
-      <c r="D10">
+      <c r="D13">
         <v>186</v>
       </c>
-      <c r="E10">
+      <c r="E13">
         <v>411</v>
       </c>
-      <c r="F10">
+      <c r="F13">
         <v>256</v>
       </c>
-      <c r="G10">
+      <c r="G13">
         <v>2755</v>
       </c>
-      <c r="H10">
+      <c r="H13">
         <v>74143</v>
       </c>
-      <c r="I10">
-        <f t="shared" ref="G10:K10" si="0">H10*2</f>
+      <c r="I13">
+        <f t="shared" ref="I13" si="9">H13*2</f>
         <v>148286</v>
       </c>
-      <c r="J10">
+      <c r="J13">
         <v>404018</v>
       </c>
-      <c r="K10">
+      <c r="K13">
         <v>480052</v>
       </c>
+      <c r="M13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <f>C10/C13</f>
+        <v>0.44318181818181818</v>
+      </c>
+      <c r="O13">
+        <f>D10/D13</f>
+        <v>0.74731182795698925</v>
+      </c>
+      <c r="P13">
+        <f>E10/E13</f>
+        <v>1.5425790754257906</v>
+      </c>
+      <c r="Q13">
+        <f>F10/F13</f>
+        <v>1.35546875</v>
+      </c>
+      <c r="R13">
+        <f>G10/G13</f>
+        <v>2.4373865698729582</v>
+      </c>
+      <c r="S13">
+        <f>H10/H13</f>
+        <v>2.8308673779048594</v>
+      </c>
+      <c r="T13">
+        <f>I10/I13</f>
+        <v>4.4887514667601796</v>
+      </c>
+      <c r="U13">
+        <f>J10/J13</f>
+        <v>2.6697523377671293</v>
+      </c>
+      <c r="V13">
+        <f>K10/K13</f>
+        <v>3.3737824235707796</v>
+      </c>
+      <c r="X13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>7.3863636363636367E-2</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="1"/>
+        <v>0.12455197132616487</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="2"/>
+        <v>0.25709651257096511</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="3"/>
+        <v>0.22591145833333334</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="4"/>
+        <v>0.40623109497882637</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="5"/>
+        <v>0.4718112296508099</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="6"/>
+        <v>0.74812524446002993</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="7"/>
+        <v>0.44495872296118821</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="8"/>
+        <v>0.5622970705951299</v>
+      </c>
     </row>
-    <row r="11" spans="2:11">
-      <c r="B11" t="s">
+    <row r="14" spans="2:33">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>175</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <v>217</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>387</v>
       </c>
-      <c r="F11">
+      <c r="F14">
         <v>249</v>
       </c>
-      <c r="G11">
+      <c r="G14">
         <v>2272</v>
       </c>
-      <c r="H11">
+      <c r="H14">
         <v>70859</v>
       </c>
-      <c r="I11">
+      <c r="I14">
         <v>200518</v>
       </c>
-      <c r="J11">
+      <c r="J14">
         <v>338051</v>
       </c>
-      <c r="K11">
+      <c r="K14">
         <v>475789</v>
       </c>
+      <c r="M14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <f>C10/C14</f>
+        <v>0.44571428571428573</v>
+      </c>
+      <c r="O14">
+        <f>D10/D14</f>
+        <v>0.64055299539170507</v>
+      </c>
+      <c r="P14">
+        <f>E10/E14</f>
+        <v>1.6382428940568476</v>
+      </c>
+      <c r="Q14">
+        <f>F10/F14</f>
+        <v>1.393574297188755</v>
+      </c>
+      <c r="R14">
+        <f>G10/G14</f>
+        <v>2.9555457746478875</v>
+      </c>
+      <c r="S14">
+        <f>H10/H14</f>
+        <v>2.9620655103797682</v>
+      </c>
+      <c r="T14">
+        <f>I10/I14</f>
+        <v>3.3194975014711896</v>
+      </c>
+      <c r="U14">
+        <f>J10/J14</f>
+        <v>3.190725659737732</v>
+      </c>
+      <c r="V14">
+        <f>K10/K14</f>
+        <v>3.4040110216923889</v>
+      </c>
+      <c r="X14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>5.5714285714285716E-2</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="1"/>
+        <v>8.0069124423963134E-2</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="2"/>
+        <v>0.20478036175710596</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="3"/>
+        <v>0.17419678714859438</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="4"/>
+        <v>0.36944322183098594</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="5"/>
+        <v>0.37025818879747102</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="6"/>
+        <v>0.4149371876838987</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="7"/>
+        <v>0.3988407074672165</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="8"/>
+        <v>0.42550137771154861</v>
+      </c>
     </row>
-    <row r="12" spans="2:11">
-      <c r="B12" t="s">
+    <row r="15" spans="2:33">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C15">
         <v>164</v>
       </c>
-      <c r="D12">
+      <c r="D15">
         <v>243</v>
       </c>
-      <c r="E12">
+      <c r="E15">
         <v>485</v>
       </c>
-      <c r="F12">
+      <c r="F15">
         <v>304</v>
       </c>
-      <c r="G12">
+      <c r="G15">
         <v>2624</v>
       </c>
-      <c r="H12">
+      <c r="H15">
         <v>69914</v>
       </c>
-      <c r="I12">
+      <c r="I15">
         <v>206987</v>
       </c>
-      <c r="J12">
+      <c r="J15">
         <v>349063</v>
       </c>
-      <c r="K12">
+      <c r="K15">
         <v>471808</v>
+      </c>
+      <c r="M15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <f>C10/C15</f>
+        <v>0.47560975609756095</v>
+      </c>
+      <c r="O15">
+        <f>D10/D15</f>
+        <v>0.57201646090534974</v>
+      </c>
+      <c r="P15">
+        <f>E10/E15</f>
+        <v>1.3072164948453608</v>
+      </c>
+      <c r="Q15">
+        <f>F10/F15</f>
+        <v>1.1414473684210527</v>
+      </c>
+      <c r="R15">
+        <f>G10/G15</f>
+        <v>2.5590701219512195</v>
+      </c>
+      <c r="S15">
+        <f>H10/H15</f>
+        <v>3.0021025831736132</v>
+      </c>
+      <c r="T15">
+        <f>I10/I15</f>
+        <v>3.2157526801200076</v>
+      </c>
+      <c r="U15">
+        <f>J10/J15</f>
+        <v>3.0900668360725714</v>
+      </c>
+      <c r="V15">
+        <f>K10/K15</f>
+        <v>3.4327332304666305</v>
+      </c>
+      <c r="X15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>4.7560975609756098E-2</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>5.7201646090534977E-2</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="2"/>
+        <v>0.13072164948453607</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="3"/>
+        <v>0.11414473684210527</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="4"/>
+        <v>0.25590701219512196</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="5"/>
+        <v>0.30021025831736131</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="6"/>
+        <v>0.32157526801200076</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="7"/>
+        <v>0.30900668360725714</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="8"/>
+        <v>0.34327332304666303</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
